--- a/docs/sch/CM3588_Pin_Assignment.xlsx
+++ b/docs/sch/CM3588_Pin_Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Winsurf\stm32g431_nasexp\docs\sch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32B4BBD-8923-40ED-9399-CFB1DBE36398}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18065853-2586-4584-B74F-8F6B51645C85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{BA84CF29-7B5D-4E26-B730-C2973EEED3C4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="653">
   <si>
     <t>Pin</t>
   </si>
@@ -1598,15 +1598,6 @@
     <t>RK18_SPI1_NCS0</t>
   </si>
   <si>
-    <t>RK18_SPI1_NCS1</t>
-  </si>
-  <si>
-    <t>RK18_GPIO2_C6</t>
-  </si>
-  <si>
-    <t>RK18_GPIO4_C2</t>
-  </si>
-  <si>
     <t>RK18_GPIO4_C3</t>
   </si>
   <si>
@@ -1790,27 +1781,12 @@
     <t>RK18_GPIO1_D2</t>
   </si>
   <si>
-    <t>RK18_GPIO1_D3</t>
-  </si>
-  <si>
-    <t>RK18_GPIO1_C1</t>
-  </si>
-  <si>
-    <t>RK18_GPIO1_C0</t>
-  </si>
-  <si>
-    <t>RK18_GPIO0_B2</t>
-  </si>
-  <si>
     <t>RK33_GPIO4_A0</t>
   </si>
   <si>
     <t>RK33_GPIO4_A1</t>
   </si>
   <si>
-    <t>RK33_GPIO4_A2</t>
-  </si>
-  <si>
     <t>RK33_GPIO4_A3</t>
   </si>
   <si>
@@ -1926,16 +1902,145 @@
   </si>
   <si>
     <t>RK33_GPIO3_B3</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>NASEXP_P26_SDIO_CLK (JUMPER)</t>
+  </si>
+  <si>
+    <t>NASEXP_P07_GPIO3_B2 (RESET_ALL)</t>
+  </si>
+  <si>
+    <t>NASEXP_P11_PWM14_M0 (LCD_BL)</t>
+  </si>
+  <si>
+    <t>NASEXP_P24_SPI0_NCS0 (CANFD)</t>
+  </si>
+  <si>
+    <t>NASEXP_P22_SPI0_NCS1 (IMU)</t>
+  </si>
+  <si>
+    <t>NASEXP_P03_I2C8_SDA (SSR)</t>
+  </si>
+  <si>
+    <t>NASEXP_P05_I2C8_SCL (SSR)</t>
+  </si>
+  <si>
+    <t>NASEXP_P23_SPI0_MCLK (CANFD+IMU)</t>
+  </si>
+  <si>
+    <t>NASEXP_P19_SPI0_MOSI (CANFD+IMU)</t>
+  </si>
+  <si>
+    <t>NASEXP_P21_SPI0_MISO (CANFD+IMU)</t>
+  </si>
+  <si>
+    <t>NASEXP_P28_UART6_TX (RTK)</t>
+  </si>
+  <si>
+    <t>NASEXP_P27_UART6_RX (RTK)</t>
+  </si>
+  <si>
+    <t>NASEXP_P08_UART0_TX (RS485 / EC25)</t>
+  </si>
+  <si>
+    <t>NASEXP_P10_UART0_RX (RS485 / EC25)</t>
+  </si>
+  <si>
+    <t>NASEXP_P32_PWM5_M1 (AP6256 / BUZZER)</t>
+  </si>
+  <si>
+    <t>NASEXP_P33_PWM9_M0 (AP6256 / BUZZER)</t>
+  </si>
+  <si>
+    <t>NASEXP_P38_SDIO_D1 (AP6256)</t>
+  </si>
+  <si>
+    <t>&gt;&gt; SPECIAL JUMP TO NASEXP_P26 (AP6256)</t>
+  </si>
+  <si>
+    <t>NASEXP_P37_SDIO_CMD (AP6256)</t>
+  </si>
+  <si>
+    <t>NASEXP_P36_SDIO_D3 (AP6256)</t>
+  </si>
+  <si>
+    <t>NASEXP_P40_SDIO_D2 (AP6256)</t>
+  </si>
+  <si>
+    <t>NASEXP_P35_SDIO_D0 (AP6256)</t>
+  </si>
+  <si>
+    <t>NASEXP_P31_CAN1_TX (CAN2.0)</t>
+  </si>
+  <si>
+    <t>NASEXP_P29_CAN1_RX (CAN2.0)</t>
+  </si>
+  <si>
+    <t>NASEXP_P16_GPIO3_B3 (EC25)</t>
+  </si>
+  <si>
+    <t>NASEXP_P18_GPIO3_B4 (EC25)</t>
+  </si>
+  <si>
+    <t>NASEXP_P12_GPIO3_B7 (RS485 / EC25)</t>
+  </si>
+  <si>
+    <t>NASEXP_P15_GPIO1_A7 (EC25)</t>
+  </si>
+  <si>
+    <t>NASEXP_P13_PWM15_M0 (EC25)</t>
+  </si>
+  <si>
+    <t>RK18_PDSRC_EN</t>
+  </si>
+  <si>
+    <t>RK18_IMU_INT2</t>
+  </si>
+  <si>
+    <t>RK18_IMU_INT1</t>
+  </si>
+  <si>
+    <t>RK18_UART3_TX</t>
+  </si>
+  <si>
+    <t>RK18_UART3_RX</t>
+  </si>
+  <si>
+    <t>RK18_UART3_NCS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1970,7 +2075,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1980,6 +2085,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2298,10 +2430,11 @@
   <dimension ref="B1:F102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="E1:F2"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C85" sqref="C85"/>
+      <selection pane="topRight" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomRight" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,26 +2446,26 @@
     <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>497</v>
       </c>
     </row>
@@ -2587,7 +2720,7 @@
       <c r="E17" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="7" t="s">
         <v>500</v>
       </c>
     </row>
@@ -2655,8 +2788,8 @@
       <c r="E21" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>501</v>
+      <c r="F21" s="7" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -2689,7 +2822,7 @@
       <c r="E23" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="7" t="s">
         <v>502</v>
       </c>
     </row>
@@ -2723,7 +2856,7 @@
       <c r="E25" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="7" t="s">
         <v>512</v>
       </c>
     </row>
@@ -2757,7 +2890,7 @@
       <c r="E27" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="7" t="s">
         <v>513</v>
       </c>
     </row>
@@ -2775,7 +2908,7 @@
         <v>499</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -2791,7 +2924,7 @@
       <c r="E29" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="7" t="s">
         <v>514</v>
       </c>
     </row>
@@ -2808,8 +2941,8 @@
       <c r="E30" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>518</v>
+      <c r="F30" s="8" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -2825,8 +2958,8 @@
       <c r="E31" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>515</v>
+      <c r="F31" s="7" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -2842,8 +2975,8 @@
       <c r="E32" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>519</v>
+      <c r="F32" s="7" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -2859,8 +2992,8 @@
       <c r="E33" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>516</v>
+      <c r="F33" s="7" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -2876,8 +3009,8 @@
       <c r="E34" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>520</v>
+      <c r="F34" s="7" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -3539,8 +3672,8 @@
       <c r="E73" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>521</v>
+      <c r="F73" s="7" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -3607,8 +3740,8 @@
       <c r="E77" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>522</v>
+      <c r="F77" s="7" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -3675,8 +3808,8 @@
       <c r="E81" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>523</v>
+      <c r="F81" s="8" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
@@ -3709,8 +3842,8 @@
       <c r="E83" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>524</v>
+      <c r="F83" s="8" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
@@ -3743,8 +3876,8 @@
       <c r="E85" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>525</v>
+      <c r="F85" s="7" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
@@ -3777,8 +3910,8 @@
       <c r="E87" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>526</v>
+      <c r="F87" s="7" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
@@ -3811,8 +3944,8 @@
       <c r="E89" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>527</v>
+      <c r="F89" s="7" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
@@ -3845,8 +3978,8 @@
       <c r="E91" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>528</v>
+      <c r="F91" s="7" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
@@ -3913,8 +4046,8 @@
       <c r="E95" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>529</v>
+      <c r="F95" s="7" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
@@ -3947,8 +4080,8 @@
       <c r="E97" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>530</v>
+      <c r="F97" s="7" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
@@ -3981,8 +4114,8 @@
       <c r="E99" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>531</v>
+      <c r="F99" s="7" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
@@ -4015,8 +4148,8 @@
       <c r="E101" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>532</v>
+      <c r="F101" s="7" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
@@ -4048,10 +4181,11 @@
   <dimension ref="B1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="A1:F2"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C85" sqref="C85"/>
+      <selection pane="topRight" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4065,26 +4199,26 @@
     <col min="9" max="9" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>497</v>
       </c>
     </row>
@@ -4218,10 +4352,10 @@
         <v>129</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
@@ -5798,11 +5932,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEF3B88-2081-4BE6-ADFC-1F754A50D535}">
   <dimension ref="B1:I102"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C88" sqref="C88"/>
+      <selection pane="topRight" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
+      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5812,34 +5947,38 @@
     <col min="4" max="4" width="37.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.85546875" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -5856,7 +5995,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -5873,7 +6012,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -5890,7 +6029,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -5907,7 +6046,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -5924,7 +6063,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -5941,7 +6080,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -5958,7 +6097,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -5975,7 +6114,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -5992,7 +6131,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -6009,7 +6148,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -6026,7 +6165,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -6043,7 +6182,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -6060,7 +6199,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -6496,10 +6635,10 @@
         <v>22</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -6530,10 +6669,10 @@
         <v>22</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>579</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -6566,8 +6705,8 @@
       <c r="E45" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>580</v>
+      <c r="F45" s="7" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -6600,8 +6739,8 @@
       <c r="E47" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>581</v>
+      <c r="F47" s="7" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -6634,8 +6773,8 @@
       <c r="E49" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>582</v>
+      <c r="F49" s="7" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -6703,7 +6842,7 @@
         <v>499</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -6737,7 +6876,7 @@
         <v>499</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -6768,10 +6907,10 @@
         <v>82</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>585</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -6805,7 +6944,7 @@
         <v>499</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -6870,10 +7009,10 @@
         <v>82</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -6893,7 +7032,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>63</v>
       </c>
@@ -6904,13 +7043,13 @@
         <v>82</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>64</v>
       </c>
@@ -6921,13 +7060,13 @@
         <v>82</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>65</v>
       </c>
@@ -6938,13 +7077,13 @@
         <v>82</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>66</v>
       </c>
@@ -6955,13 +7094,13 @@
         <v>82</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>67</v>
       </c>
@@ -6972,13 +7111,13 @@
         <v>82</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>68</v>
       </c>
@@ -6992,10 +7131,10 @@
         <v>329</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>69</v>
       </c>
@@ -7006,13 +7145,13 @@
         <v>82</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>70</v>
       </c>
@@ -7023,13 +7162,16 @@
         <v>82</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>71</v>
       </c>
@@ -7046,7 +7188,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>72</v>
       </c>
@@ -7057,13 +7199,16 @@
         <v>82</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>73</v>
       </c>
@@ -7074,13 +7219,16 @@
         <v>82</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>74</v>
       </c>
@@ -7091,13 +7239,16 @@
         <v>82</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>75</v>
       </c>
@@ -7108,13 +7259,16 @@
         <v>82</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>76</v>
       </c>
@@ -7130,8 +7284,11 @@
       <c r="F78" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>77</v>
       </c>
@@ -7148,7 +7305,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>78</v>
       </c>
@@ -7159,13 +7316,16 @@
         <v>82</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -7182,7 +7342,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -7193,13 +7353,16 @@
         <v>82</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -7210,13 +7373,13 @@
         <v>82</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -7227,13 +7390,16 @@
         <v>82</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -7249,8 +7415,11 @@
       <c r="F85" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -7267,7 +7436,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -7284,7 +7453,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -7295,13 +7464,16 @@
         <v>82</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -7312,13 +7484,13 @@
         <v>82</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -7329,13 +7501,16 @@
         <v>82</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -7346,13 +7521,13 @@
         <v>82</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -7363,13 +7538,16 @@
         <v>82</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -7380,13 +7558,16 @@
         <v>82</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -7397,13 +7578,16 @@
         <v>82</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -7414,13 +7598,16 @@
         <v>82</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -7549,11 +7736,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47DABB7-9898-4F50-A171-F0532F459F26}">
   <dimension ref="B1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C85" sqref="C85"/>
+      <selection pane="topRight" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomRight" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7563,38 +7751,38 @@
     <col min="4" max="4" width="37.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.7109375" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -7611,7 +7799,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -7628,7 +7816,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -7645,7 +7833,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -7662,7 +7850,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -7679,7 +7867,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -7696,7 +7884,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -7713,7 +7901,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -7730,7 +7918,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -7747,7 +7935,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -7764,7 +7952,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -7781,7 +7969,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -7798,7 +7986,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -7815,7 +8003,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -8920,7 +9108,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>79</v>
       </c>
@@ -8931,13 +9119,13 @@
         <v>82</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>80</v>
       </c>
@@ -8954,7 +9142,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>81</v>
       </c>
@@ -8965,13 +9153,13 @@
         <v>82</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>82</v>
       </c>
@@ -8982,13 +9170,16 @@
         <v>82</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>83</v>
       </c>
@@ -9005,7 +9196,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>84</v>
       </c>
@@ -9016,13 +9207,13 @@
         <v>82</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>85</v>
       </c>
@@ -9036,10 +9227,10 @@
         <v>499</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>86</v>
       </c>
@@ -9053,10 +9244,13 @@
         <v>481</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+        <v>613</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>87</v>
       </c>
@@ -9067,13 +9261,16 @@
         <v>82</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>88</v>
       </c>
@@ -9087,10 +9284,13 @@
         <v>483</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>89</v>
       </c>
@@ -9101,13 +9301,16 @@
         <v>82</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -9121,10 +9324,13 @@
         <v>485</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+        <v>612</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>91</v>
       </c>
@@ -9135,13 +9341,16 @@
         <v>82</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>92</v>
       </c>
@@ -9152,13 +9361,16 @@
         <v>82</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>93</v>
       </c>
@@ -9169,13 +9381,16 @@
         <v>82</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -9186,13 +9401,16 @@
         <v>82</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>95</v>
       </c>
@@ -9203,13 +9421,16 @@
         <v>82</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>96</v>
       </c>
@@ -9226,24 +9447,27 @@
         <v>498</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="1">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="9">
         <v>97</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>98</v>
       </c>
@@ -9257,10 +9481,13 @@
         <v>492</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+        <v>611</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>99</v>
       </c>
@@ -9271,13 +9498,14 @@
         <v>82</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+        <v>609</v>
+      </c>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>100</v>
       </c>
@@ -9288,14 +9516,15 @@
         <v>82</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:J102" xr:uid="{91A833A1-CED8-421E-9EBB-D87CA2C72AA7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>